--- a/teaching/traditional_assets/database/data/botswana/botswana_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/botswana/botswana_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.07535</v>
+        <v>-0.0415</v>
       </c>
       <c r="E2">
-        <v>0.100275</v>
+        <v>-0.115</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.003060481322872808</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.002362738979934025</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>128.72</v>
+        <v>9.99</v>
       </c>
       <c r="L2">
-        <v>0.3218804701175294</v>
+        <v>0.15</v>
       </c>
       <c r="M2">
-        <v>63.47499999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="N2">
-        <v>0.05075563729409883</v>
+        <v>0.2319201995012469</v>
       </c>
       <c r="O2">
-        <v>0.4931246115599751</v>
+        <v>0.9309309309309309</v>
       </c>
       <c r="P2">
-        <v>63.47499999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.05075563729409883</v>
+        <v>0.2319201995012469</v>
       </c>
       <c r="R2">
-        <v>0.4931246115599751</v>
+        <v>0.9309309309309309</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>635.5</v>
+        <v>280.4</v>
       </c>
       <c r="V2">
-        <v>0.508156085079162</v>
+        <v>6.992518703241895</v>
       </c>
       <c r="W2">
-        <v>0.2300766922307436</v>
+        <v>0.09541547277936963</v>
       </c>
       <c r="X2">
-        <v>0.04778542716417196</v>
+        <v>0.09010471541889752</v>
       </c>
       <c r="Y2">
-        <v>0.1822912650665716</v>
+        <v>0.00531075736047211</v>
       </c>
       <c r="Z2">
-        <v>1.556239630635681</v>
+        <v>-0.4078383343539497</v>
       </c>
       <c r="AA2">
-        <v>-0.003687448952964437</v>
+        <v>-0</v>
       </c>
       <c r="AB2">
-        <v>0.04462468048487604</v>
+        <v>0.04605330149756055</v>
       </c>
       <c r="AC2">
-        <v>-0.04831212943784048</v>
+        <v>-0.04605330149756055</v>
       </c>
       <c r="AD2">
-        <v>320</v>
+        <v>105</v>
       </c>
       <c r="AE2">
-        <v>15.75556759491582</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>335.7555675949158</v>
+        <v>105</v>
       </c>
       <c r="AG2">
-        <v>-299.7444324050842</v>
+        <v>-175.4</v>
       </c>
       <c r="AH2">
-        <v>0.2116521506612525</v>
+        <v>0.7236388697450035</v>
       </c>
       <c r="AI2">
-        <v>0.3554264423061056</v>
+        <v>0.523168908819133</v>
       </c>
       <c r="AJ2">
-        <v>-0.3152365539208595</v>
+        <v>1.296378418329638</v>
       </c>
       <c r="AK2">
-        <v>-0.9695585776990989</v>
+        <v>2.200752823086575</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>73.14285714285714</v>
-      </c>
-      <c r="AP2">
-        <v>-68.5130131211621</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barclays Bank of Botswana Limited (BSM:BARCLAYS)</t>
+          <t>Standard Chartered Bank Botswana Limited (BSM:STANCHART)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.09480000000000001</v>
+        <v>-0.0415</v>
       </c>
       <c r="E3">
-        <v>0.197</v>
+        <v>-0.115</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,34 +725,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.002505791649941659</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001933251718055879</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>52</v>
+        <v>9.99</v>
       </c>
       <c r="L3">
-        <v>0.3455149501661129</v>
+        <v>0.15</v>
       </c>
       <c r="M3">
-        <v>25.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="N3">
-        <v>0.05759637188208616</v>
+        <v>0.2319201995012469</v>
       </c>
       <c r="O3">
-        <v>0.4884615384615384</v>
+        <v>0.9309309309309309</v>
       </c>
       <c r="P3">
-        <v>25.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.05759637188208616</v>
+        <v>0.2319201995012469</v>
       </c>
       <c r="R3">
-        <v>0.4884615384615384</v>
+        <v>0.9309309309309309</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,317 +761,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>31.4</v>
+        <v>280.4</v>
       </c>
       <c r="V3">
-        <v>0.07120181405895691</v>
+        <v>6.992518703241895</v>
       </c>
       <c r="W3">
-        <v>0.2929577464788732</v>
+        <v>0.09541547277936963</v>
       </c>
       <c r="X3">
-        <v>0.04778542716417196</v>
+        <v>0.09010471541889752</v>
       </c>
       <c r="Y3">
-        <v>0.2451723193147013</v>
+        <v>0.00531075736047211</v>
       </c>
       <c r="Z3">
-        <v>0.7299999708878155</v>
+        <v>-0.4078383343539497</v>
       </c>
       <c r="AA3">
-        <v>0.001411273697899611</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.04401130902355123</v>
+        <v>0.04605330149756055</v>
       </c>
       <c r="AC3">
-        <v>-0.04260003532565162</v>
+        <v>-0.04605330149756055</v>
       </c>
       <c r="AD3">
-        <v>91.90000000000001</v>
+        <v>105</v>
       </c>
       <c r="AE3">
-        <v>9.064391783418902</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>100.9643917834189</v>
+        <v>105</v>
       </c>
       <c r="AG3">
-        <v>69.5643917834189</v>
+        <v>-175.4</v>
       </c>
       <c r="AH3">
-        <v>0.1862934047219961</v>
+        <v>0.7236388697450035</v>
       </c>
       <c r="AI3">
-        <v>0.3374879984263383</v>
+        <v>0.523168908819133</v>
       </c>
       <c r="AJ3">
-        <v>0.136249987078864</v>
+        <v>1.296378418329638</v>
       </c>
       <c r="AK3">
-        <v>0.2597970227485887</v>
+        <v>2.200752823086575</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>41.96347031963471</v>
-      </c>
-      <c r="AP3">
-        <v>31.76456245818214</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Botswana</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>African Banking Corporation of Botswana Limited (BSM:ABC)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>-0.007051503966485103</v>
-      </c>
-      <c r="J4">
-        <v>-0.005422606550227044</v>
-      </c>
-      <c r="K4">
-        <v>7.72</v>
-      </c>
-      <c r="L4">
-        <v>0.1598343685300207</v>
-      </c>
-      <c r="M4">
-        <v>2.175</v>
-      </c>
-      <c r="N4">
-        <v>0.0159808963997061</v>
-      </c>
-      <c r="O4">
-        <v>0.2817357512953368</v>
-      </c>
-      <c r="P4">
-        <v>2.175</v>
-      </c>
-      <c r="Q4">
-        <v>0.0159808963997061</v>
-      </c>
-      <c r="R4">
-        <v>0.2817357512953368</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>119.4</v>
-      </c>
-      <c r="V4">
-        <v>0.8772961058045555</v>
-      </c>
-      <c r="W4">
-        <v>0.0827438370846731</v>
-      </c>
-      <c r="X4">
-        <v>0.05562082218698584</v>
-      </c>
-      <c r="Y4">
-        <v>0.02712301489768726</v>
-      </c>
-      <c r="Z4">
-        <v>0.6800141073871648</v>
-      </c>
-      <c r="AA4">
-        <v>-0.003687448952964437</v>
-      </c>
-      <c r="AB4">
-        <v>0.04462468048487604</v>
-      </c>
-      <c r="AC4">
-        <v>-0.04831212943784048</v>
-      </c>
-      <c r="AD4">
-        <v>85.2</v>
-      </c>
-      <c r="AE4">
-        <v>2.327938207906152</v>
-      </c>
-      <c r="AF4">
-        <v>87.52793820790616</v>
-      </c>
-      <c r="AG4">
-        <v>-31.87206179209385</v>
-      </c>
-      <c r="AH4">
-        <v>0.391399835411136</v>
-      </c>
-      <c r="AI4">
-        <v>0.4753647874396709</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.3057919243160871</v>
-      </c>
-      <c r="AK4">
-        <v>-0.492400386518118</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>681.6</v>
-      </c>
-      <c r="AP4">
-        <v>-254.9764943367508</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Botswana</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>First National Bank of Botswana Limited (BSM:FNBB)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>0.0559</v>
-      </c>
-      <c r="E5">
-        <v>0.00355</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.005904288807965424</v>
-      </c>
-      <c r="J5">
-        <v>0.004578971454886766</v>
-      </c>
-      <c r="K5">
-        <v>69</v>
-      </c>
-      <c r="L5">
-        <v>0.3431128791645948</v>
-      </c>
-      <c r="M5">
-        <v>35.9</v>
-      </c>
-      <c r="N5">
-        <v>0.05330363771343727</v>
-      </c>
-      <c r="O5">
-        <v>0.5202898550724637</v>
-      </c>
-      <c r="P5">
-        <v>35.9</v>
-      </c>
-      <c r="Q5">
-        <v>0.05330363771343727</v>
-      </c>
-      <c r="R5">
-        <v>0.5202898550724637</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>484.7</v>
-      </c>
-      <c r="V5">
-        <v>0.7196733481811433</v>
-      </c>
-      <c r="W5">
-        <v>0.2300766922307436</v>
-      </c>
-      <c r="X5">
-        <v>0.04759074785476237</v>
-      </c>
-      <c r="Y5">
-        <v>0.1824859443759812</v>
-      </c>
-      <c r="Z5">
-        <v>-9.942273313879427</v>
-      </c>
-      <c r="AA5">
-        <v>-0.04552538570093635</v>
-      </c>
-      <c r="AB5">
-        <v>0.04536226514971223</v>
-      </c>
-      <c r="AC5">
-        <v>-0.09088765085064858</v>
-      </c>
-      <c r="AD5">
-        <v>142.9</v>
-      </c>
-      <c r="AE5">
-        <v>4.363237603590766</v>
-      </c>
-      <c r="AF5">
-        <v>147.2632376035908</v>
-      </c>
-      <c r="AG5">
-        <v>-337.4367623964092</v>
-      </c>
-      <c r="AH5">
-        <v>0.1794223118880909</v>
-      </c>
-      <c r="AI5">
-        <v>0.3191915297987423</v>
-      </c>
-      <c r="AJ5">
-        <v>-1.004087102185329</v>
-      </c>
-      <c r="AK5">
-        <v>14.45945057264371</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>69.36893203883496</v>
-      </c>
-      <c r="AP5">
-        <v>-163.8042535904899</v>
       </c>
     </row>
   </sheetData>
